--- a/PAT_Editor/Samples/V3/MIPI_Config_MT(含备注).xlsx
+++ b/PAT_Editor/Samples/V3/MIPI_Config_MT(含备注).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddie\Desktop\VC_MIPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddie\Documents\GitHub\PAT_Editor_Simplified\PAT_Editor\Samples\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF72A14-1863-4A5E-B9B5-18456F9CF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6C9AFA-15D1-4EFC-99E9-077854B7CAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="3660" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础配置" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="MIPI_FUNC" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
   <si>
     <t>Mipi Mode</t>
   </si>
@@ -465,6 +464,14 @@
   </si>
   <si>
     <t>UserID为F   00寄存器写入0x0F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据‘基础配置’中的site分配，选择性地生成命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,12 +867,12 @@
       <selection activeCell="A8" sqref="A8:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -876,7 +883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -885,7 +892,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -894,7 +901,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -903,10 +910,10 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>100</v>
       </c>
@@ -923,7 +930,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -946,7 +953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -966,7 +973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -984,7 +991,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1009,7 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1027,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1045,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1063,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1081,7 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1099,7 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1117,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1135,7 @@
       </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1159,22 +1166,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="85.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="85.875" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>107</v>
       </c>
@@ -1190,8 +1198,11 @@
       <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1207,11 +1218,14 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>111</v>
       </c>
@@ -1227,9 +1241,9 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
@@ -1241,9 +1255,9 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>33</v>
@@ -1257,9 +1271,9 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>38</v>
@@ -1273,9 +1287,9 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="13" t="s">
         <v>37</v>
@@ -1289,9 +1303,9 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
@@ -1303,9 +1317,9 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -1321,9 +1335,12 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="13" t="s">
         <v>33</v>
@@ -1337,9 +1354,9 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
@@ -1351,9 +1368,9 @@
       <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
@@ -1365,9 +1382,9 @@
       <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
         <v>10</v>
@@ -1381,9 +1398,9 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
@@ -1395,9 +1412,9 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1413,12 +1430,15 @@
       <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>116</v>
       </c>
@@ -1426,7 +1446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>117</v>
       </c>
@@ -1434,7 +1454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>120</v>
       </c>
@@ -1442,7 +1462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>119</v>
       </c>
@@ -1450,7 +1470,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>118</v>
       </c>
@@ -1458,7 +1478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>114</v>
       </c>
@@ -1468,7 +1488,7 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F2:F15"/>
+    <mergeCell ref="G2:G15"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B3:B4"/>
@@ -1486,16 +1506,16 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>106</v>
       </c>
@@ -1508,7 +1528,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1525,7 +1545,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1545,7 +1565,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1563,7 +1583,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1581,7 +1601,7 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1599,42 +1619,50 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1643,13 +1671,13 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="10"/>
     </row>
   </sheetData>
@@ -1670,16 +1698,16 @@
       <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1687,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1722,7 +1750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>42</v>
       </c>
@@ -1750,7 +1778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="15"/>
@@ -1771,7 +1799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="15"/>
@@ -1792,7 +1820,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
@@ -1816,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15"/>
@@ -1840,7 +1868,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="15"/>
@@ -1861,7 +1889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
@@ -1882,7 +1910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="15"/>
@@ -1906,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="15"/>
@@ -1930,7 +1958,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>41</v>
       </c>
@@ -1955,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1976,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1997,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2021,7 +2049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2045,7 +2073,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2066,7 +2094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2087,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2108,7 +2136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -2129,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>

--- a/PAT_Editor/Samples/V3/MIPI_Config_MT(含备注).xlsx
+++ b/PAT_Editor/Samples/V3/MIPI_Config_MT(含备注).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="161">
   <si>
     <t>TS1</t>
   </si>
@@ -176,6 +176,9 @@
     <t>Test3</t>
   </si>
   <si>
+    <t>Delay</t>
+  </si>
+  <si>
     <t>DELAY</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
     <t>UserID为2   读取1C寄存器中的值，判断是否为0x40</t>
   </si>
   <si>
+    <t>ZeroWrite</t>
+  </si>
+  <si>
     <t>ZW</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
     <t>UserID为2   00寄存器写入0x3F</t>
   </si>
   <si>
+    <t>MaskWrite</t>
+  </si>
+  <si>
     <t>MW</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
     <t>UserID为2   00寄存器写入0xFF和0xFE（前者为Mask后者为Data）</t>
   </si>
   <si>
+    <t>ExtendWrite</t>
+  </si>
+  <si>
     <t>EW</t>
   </si>
   <si>
@@ -248,6 +260,9 @@
     <t>UserID为2   2D寄存器写入0xFFEE</t>
   </si>
   <si>
+    <t>ExtendRead</t>
+  </si>
+  <si>
     <t>ER</t>
   </si>
   <si>
@@ -260,6 +275,9 @@
     <t>UserID为2   读取2D寄存器中的值，判断是否为0xFF</t>
   </si>
   <si>
+    <t>ExtendLongWrite</t>
+  </si>
+  <si>
     <t>LEW</t>
   </si>
   <si>
@@ -272,6 +290,9 @@
     <t>UserID为2   2D2B寄存器写入0xFFEE</t>
   </si>
   <si>
+    <t>ExtendLongRead</t>
+  </si>
+  <si>
     <t>LER</t>
   </si>
   <si>
@@ -284,22 +305,28 @@
     <t>UserID为2   读取2D2B寄存器中的值，判断是否为0xFF</t>
   </si>
   <si>
-    <t>UW</t>
+    <t>ExtendUniversalWrite</t>
+  </si>
+  <si>
+    <t>UEW</t>
   </si>
   <si>
     <t>UserID(4bit) + CommandByteCount(8bit) + _ + RegisterAddress(N * 8bit) + _ + Data(N * 8bit)</t>
   </si>
   <si>
-    <t>UW2_AA_2D2B22_FFEEDDCCBB</t>
+    <t>UEW2AA_2D2B22_FFEEDDCCBB</t>
   </si>
   <si>
     <t>UserID为2   2D2B22寄存器写入0xFFEEDDCCBB</t>
   </si>
   <si>
-    <t>UR</t>
-  </si>
-  <si>
-    <t>UR2_AA_2D2B22_FFEEDDCCBB</t>
+    <t>ExtendUniversalRead</t>
+  </si>
+  <si>
+    <t>UER</t>
+  </si>
+  <si>
+    <t>UER2AA_2D2B22_FFEEDDCCBB</t>
   </si>
   <si>
     <t>UserID为2   读取2D2B22寄存器中的值，判断是否为0xFFEEDDCCBB</t>
@@ -1462,7 +1489,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A18"/>
+      <selection activeCell="A1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1768,7 +1795,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2037,158 +2064,191 @@
     <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" ht="28.5" spans="2:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" spans="1:5">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2223,10 +2283,10 @@
   <sheetData>
     <row r="1" ht="29.45" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2236,7 +2296,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2248,12 +2308,12 @@
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -2273,7 +2333,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -2291,7 +2351,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -2309,7 +2369,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -2318,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -2337,7 +2397,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>33</v>
@@ -2346,7 +2406,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -2358,10 +2418,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2370,10 +2430,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -2415,7 +2475,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
@@ -2423,10 +2483,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -2435,30 +2495,30 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2466,22 +2526,22 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2490,16 +2550,16 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J4">
         <v>38</v>
@@ -2511,19 +2571,19 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2532,13 +2592,13 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2556,22 +2616,22 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" t="s">
         <v>130</v>
-      </c>
-      <c r="I7" t="s">
-        <v>121</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2580,16 +2640,16 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J8">
         <v>38</v>
@@ -2601,19 +2661,19 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2622,13 +2682,13 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2646,13 +2706,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2661,12 +2721,12 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -2674,13 +2734,13 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2695,13 +2755,13 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>130</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2716,13 +2776,13 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2737,22 +2797,22 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J15">
         <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2761,13 +2821,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -2776,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2785,19 +2845,19 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2806,13 +2866,13 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2827,19 +2887,19 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2848,13 +2908,13 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2869,13 +2929,13 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I21">
         <v>4</v>
